--- a/01_C#/学习笔记_WPF_Prism.xlsx
+++ b/01_C#/学习笔记_WPF_Prism.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="问题" sheetId="8" r:id="rId9"/>
     <sheet name="参考" sheetId="7" r:id="rId10"/>
     <sheet name="IOC" sheetId="11" r:id="rId11"/>
+    <sheet name="UI" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="202">
   <si>
     <r>
       <rPr>
@@ -943,12 +944,333 @@
     <t>实例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Prism.Dryloc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、安装包：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、创建一个WPF工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialDesignThemes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prism + MaterialDesignThemes创建应用实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本：8.1.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本：4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本：.net 6.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material Design in XAML Toolkit 使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 添加 NuGet 包</t>
+  </si>
+  <si>
+    <t>　　在解决方案管理器视图中的目标项目上右键  -&gt; 管理 NuGet 程序包；</t>
+  </si>
+  <si>
+    <t>　　添加 MaterialDesignThemes 包，如下图所示</t>
+  </si>
+  <si>
+    <t>2. 配置 App.xaml</t>
+  </si>
+  <si>
+    <t>　　App.xaml 应该是类似这样的：</t>
+  </si>
+  <si>
+    <t>&lt;Application x:Class="Example.App"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             xmlns="http://schemas.microsoft.com/winfx/2006/xaml/presentation"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             xmlns:x="http://schemas.microsoft.com/winfx/2006/xaml"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             xmlns:materialDesign="http://materialdesigninxaml.net/winfx/xaml/themes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             StartupUri="MainWindow.xaml"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Application.Resources&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;ResourceDictionary&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;ResourceDictionary.MergedDictionaries&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;materialDesign:BundledTheme BaseTheme="Light" PrimaryColor="Indigo" SecondaryColor="Lime" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;ResourceDictionary Source="pack://application:,,,/MaterialDesignThemes.Wpf;component/Themes/MaterialDesignTheme.Defaults.xaml" /&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            &lt;/ResourceDictionary.MergedDictionaries&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/ResourceDictionary&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/Application.Resources&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/Application&gt;</t>
+  </si>
+  <si>
+    <t>3. 配置 Window</t>
+  </si>
+  <si>
+    <t>　　向窗口的开始标签添加一些参数。为了获得完整的材质设计体验，你应该这样设置字体：</t>
+  </si>
+  <si>
+    <t>&lt;Window [...]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [...] &gt;</t>
+  </si>
+  <si>
+    <t>4. 开始使用</t>
+  </si>
+  <si>
+    <t>　　打开从 GitHub 上下载的 MaterialDesignDemo.exe 查看控件效果和代码。</t>
+  </si>
+  <si>
+    <t>5. 参考</t>
+  </si>
+  <si>
+    <r>
+      <t>　　更改此处来更改主题和颜色 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BaseTheme="Light" PrimaryColor="Aqua" SecondaryColor="DarkGreen"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        xmlns:materialDesign=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"http://materialdesigninxaml.net/winfx/xaml/themes"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        TextElement.Foreground=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{DynamicResource MaterialDesignBody}"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        Background=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{DynamicResource MaterialDesignPaper}"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        TextElement.FontWeight=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Medium"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        TextElement.FontSize=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"14"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        FontFamily=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF800000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{materialDesign:MaterialDesignFont}"</t>
+    </r>
+  </si>
+  <si>
+    <t>　　Demo 下载地址：https://github.com/ButchersBoy/MaterialDesignInXamlToolkit/releases</t>
+  </si>
+  <si>
+    <t>　　GitHub 地址：https://github.com/MaterialDesignInXAML/MaterialDesignInXamlToolkit</t>
+  </si>
+  <si>
+    <t>　　官方入门指导：https://github.com/MaterialDesignInXAML/MaterialDesignInXamlToolkit/wiki/Getting-Started</t>
+  </si>
+  <si>
+    <t>3、修改代码：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App.xaml</t>
+  </si>
+  <si>
+    <t>&lt;prism:PrismApplication x:Class="PrismWpfApp.App"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             xmlns:local="clr-namespace:PrismWpfApp"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             xmlns:prism="http://prismlibrary.com/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;ResourceDictionary Source="pack://application:,,,/MaterialDesignThemes.Wpf;component/Themes/MaterialDesignTheme.Defaults.xaml" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/prism:PrismApplication&gt;</t>
+  </si>
+  <si>
+    <t>App.xaml.cs</t>
+  </si>
+  <si>
+    <t>using Prism.DryIoc;</t>
+  </si>
+  <si>
+    <t>using Prism.Ioc;</t>
+  </si>
+  <si>
+    <t>using System;</t>
+  </si>
+  <si>
+    <t>using System.Collections.Generic;</t>
+  </si>
+  <si>
+    <t>using System.Configuration;</t>
+  </si>
+  <si>
+    <t>using System.Data;</t>
+  </si>
+  <si>
+    <t>using System.Linq;</t>
+  </si>
+  <si>
+    <t>using System.Threading.Tasks;</t>
+  </si>
+  <si>
+    <t>using System.Windows;</t>
+  </si>
+  <si>
+    <t>namespace PrismWpfApp</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /// &lt;summary&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /// Interaction logic for App.xaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /// &lt;/summary&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public partial class App : PrismApplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        protected override Window CreateShell()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return Container.Resolve&lt;MainWindow&gt;(); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        protected override void RegisterTypes(IContainerRegistry containerRegistry)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,6 +1448,63 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4B4B4B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1169,7 +1548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,6 +1601,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1603,6 +1994,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="https://img2020.cnblogs.com/blog/1261034/202006/1261034-20200617163306734-605156866.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695325" y="952500"/>
+          <a:ext cx="10639425" cy="4619625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1858,7 +2309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1868,7 +2319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B259"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2717,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2782,6 +3235,462 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34" s="29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B45" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B46" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B47" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B48" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+    </row>
+    <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+    </row>
+    <row r="62" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B66" s="29"/>
+    </row>
+    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B67" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3252,14 +4161,866 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
